--- a/biology/Zoologie/Batara_à_ailes_unies/Batara_à_ailes_unies.xlsx
+++ b/biology/Zoologie/Batara_à_ailes_unies/Batara_à_ailes_unies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Batara_%C3%A0_ailes_unies</t>
+          <t>Batara_à_ailes_unies</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thamnophilus schistaceus
 Le Batara à ailes unies (Thamnophilus schistaceus) est une espèce d'oiseaux de la famille des Thamnophilidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Batara_%C3%A0_ailes_unies</t>
+          <t>Batara_à_ailes_unies</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit dans l'Ouest et le Sud de l'Amazonie.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Batara_%C3%A0_ailes_unies</t>
+          <t>Batara_à_ailes_unies</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,14 +557,16 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon le Congrès ornithologique international[1] et Alan P. Peterson[2], il existe cinq sous-espèces :
-Thamnophilus schistaceus capitalis P.L. Sclater, 1858, dans le Sud-Est de la Colombie, l'Est de l'Équateur et le Nord-Est du Pérou[1] ;
-Thamnophilus schistaceus dubius (Berlepsch &amp; Stolzmann, 1894), de l'Est du Pérou[1] ;
-Thamnophilus schistaceus schistaceus d'Orbigny, 1837, du Sud-Est du Pérou, Nord de la Bolivie et l'Ouest du Brésil[1] ;
-Thamnophilus schistaceus heterogynus (Hellmayr, 1907), dans l'Est de la Colombie et le centre Ouest du Brésil amazonien[1] ;
-Thamnophilus schistaceus inornatus Ridgway, 1888, dans le centre du Brésil[1].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon le Congrès ornithologique international et Alan P. Peterson, il existe cinq sous-espèces :
+Thamnophilus schistaceus capitalis P.L. Sclater, 1858, dans le Sud-Est de la Colombie, l'Est de l'Équateur et le Nord-Est du Pérou ;
+Thamnophilus schistaceus dubius (Berlepsch &amp; Stolzmann, 1894), de l'Est du Pérou ;
+Thamnophilus schistaceus schistaceus d'Orbigny, 1837, du Sud-Est du Pérou, Nord de la Bolivie et l'Ouest du Brésil ;
+Thamnophilus schistaceus heterogynus (Hellmayr, 1907), dans l'Est de la Colombie et le centre Ouest du Brésil amazonien ;
+Thamnophilus schistaceus inornatus Ridgway, 1888, dans le centre du Brésil.</t>
         </is>
       </c>
     </row>
